--- a/RhythmiCal/src/main/resources/스토리DB.xlsx
+++ b/RhythmiCal/src/main/resources/스토리DB.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="446">
   <si>
     <t>CONTENTORDER</t>
   </si>
@@ -3924,9 +3924,6 @@
   </si>
   <si>
     <t>숲속</t>
-  </si>
-  <si>
-    <t>???</t>
   </si>
   <si>
     <t>노비토</t>
@@ -3983,6 +3980,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 해치운다!!</t>
@@ -4019,6 +4018,26 @@
   </si>
   <si>
     <t>노비토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리드미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을 소년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠구궁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4473,8 +4492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A384" workbookViewId="0">
-      <selection activeCell="C414" sqref="C414"/>
+    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
+      <selection activeCell="C411" sqref="C411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4594,7 +4613,7 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>55</v>
+        <v>441</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4630,7 +4649,7 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>55</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4666,7 +4685,7 @@
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>55</v>
+        <v>441</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4702,7 +4721,7 @@
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>55</v>
+        <v>441</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4738,7 +4757,7 @@
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>55</v>
+        <v>441</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4774,7 +4793,7 @@
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>56</v>
+        <v>442</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5073,14 +5092,14 @@
         <v>1</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -5108,7 +5127,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>53</v>
@@ -5151,7 +5170,7 @@
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -5169,7 +5188,7 @@
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -5907,7 +5926,7 @@
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -6373,7 +6392,7 @@
         <v>89</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>57</v>
@@ -6538,7 +6557,7 @@
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -6555,7 +6574,7 @@
         <v>53</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -7475,14 +7494,14 @@
         <v>7</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>186</v>
       </c>
       <c r="E169" s="1"/>
       <c r="F169" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -7716,7 +7735,7 @@
       </c>
       <c r="E182" s="1"/>
       <c r="F182" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -7752,7 +7771,7 @@
       </c>
       <c r="E184" s="1"/>
       <c r="F184" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -7788,7 +7807,7 @@
       </c>
       <c r="E186" s="1"/>
       <c r="F186" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -8128,7 +8147,7 @@
         <v>199</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -8214,7 +8233,7 @@
         <v>199</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -9028,7 +9047,7 @@
         <v>199</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -9045,7 +9064,7 @@
         <v>199</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -9062,7 +9081,7 @@
         <v>199</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -9079,7 +9098,7 @@
         <v>199</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -9096,7 +9115,7 @@
         <v>199</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -9113,7 +9132,7 @@
         <v>199</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -9130,7 +9149,7 @@
         <v>199</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -9147,7 +9166,7 @@
         <v>284</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -9164,7 +9183,7 @@
         <v>284</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -9181,7 +9200,7 @@
         <v>284</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -9198,7 +9217,7 @@
         <v>284</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -9232,7 +9251,7 @@
         <v>89</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -9266,7 +9285,7 @@
         <v>89</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -9300,7 +9319,7 @@
         <v>89</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -9334,7 +9353,7 @@
         <v>89</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -9368,7 +9387,7 @@
         <v>89</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -9419,7 +9438,7 @@
         <v>89</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -9453,7 +9472,7 @@
         <v>89</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -9487,7 +9506,7 @@
         <v>89</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -9538,7 +9557,7 @@
         <v>89</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -9555,7 +9574,7 @@
         <v>89</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -9572,7 +9591,7 @@
         <v>89</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -9606,7 +9625,7 @@
         <v>89</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -9640,7 +9659,7 @@
         <v>424</v>
       </c>
       <c r="F292" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -9674,7 +9693,7 @@
         <v>424</v>
       </c>
       <c r="F294" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -9742,7 +9761,7 @@
         <v>424</v>
       </c>
       <c r="F298" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -9827,7 +9846,7 @@
         <v>424</v>
       </c>
       <c r="F303" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -9861,7 +9880,7 @@
         <v>424</v>
       </c>
       <c r="F305" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -9878,7 +9897,7 @@
         <v>424</v>
       </c>
       <c r="F306" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -9895,7 +9914,7 @@
         <v>424</v>
       </c>
       <c r="F307" t="s">
-        <v>425</v>
+        <v>205</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -9912,7 +9931,7 @@
         <v>424</v>
       </c>
       <c r="F308" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -9928,8 +9947,8 @@
       <c r="D309" t="s">
         <v>424</v>
       </c>
-      <c r="F309" t="s">
-        <v>205</v>
+      <c r="F309" s="4" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -9946,7 +9965,7 @@
         <v>424</v>
       </c>
       <c r="F310" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -10031,7 +10050,7 @@
         <v>424</v>
       </c>
       <c r="F315" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -10048,7 +10067,7 @@
         <v>424</v>
       </c>
       <c r="F316" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -10065,7 +10084,7 @@
         <v>424</v>
       </c>
       <c r="F317" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -10082,7 +10101,7 @@
         <v>424</v>
       </c>
       <c r="F318" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -10099,7 +10118,7 @@
         <v>424</v>
       </c>
       <c r="F319" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -10150,7 +10169,7 @@
         <v>424</v>
       </c>
       <c r="F322" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -10184,7 +10203,7 @@
         <v>424</v>
       </c>
       <c r="F324" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -10218,7 +10237,7 @@
         <v>424</v>
       </c>
       <c r="F326" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -10246,7 +10265,7 @@
         <v>13</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D328" t="s">
         <v>424</v>
@@ -10269,7 +10288,7 @@
         <v>424</v>
       </c>
       <c r="F329" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -10280,7 +10299,7 @@
         <v>13</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D330" t="s">
         <v>424</v>
@@ -10303,7 +10322,7 @@
         <v>424</v>
       </c>
       <c r="F331" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -10371,7 +10390,7 @@
         <v>424</v>
       </c>
       <c r="F335" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -10388,7 +10407,7 @@
         <v>424</v>
       </c>
       <c r="F336" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -10541,7 +10560,7 @@
         <v>424</v>
       </c>
       <c r="F345" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -10626,7 +10645,7 @@
         <v>424</v>
       </c>
       <c r="F350" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -10643,7 +10662,7 @@
         <v>424</v>
       </c>
       <c r="F351" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -10660,7 +10679,7 @@
         <v>424</v>
       </c>
       <c r="F352" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -10677,7 +10696,7 @@
         <v>424</v>
       </c>
       <c r="F353" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -10694,7 +10713,7 @@
         <v>424</v>
       </c>
       <c r="F354" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -10711,7 +10730,7 @@
         <v>424</v>
       </c>
       <c r="F355" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -10728,7 +10747,7 @@
         <v>424</v>
       </c>
       <c r="F356" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -10813,7 +10832,7 @@
         <v>424</v>
       </c>
       <c r="F361" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="362" spans="1:6">
@@ -10830,7 +10849,7 @@
         <v>424</v>
       </c>
       <c r="F362" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="363" spans="1:6">
@@ -10932,7 +10951,7 @@
         <v>424</v>
       </c>
       <c r="F368" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="369" spans="1:6">
@@ -10966,7 +10985,7 @@
         <v>424</v>
       </c>
       <c r="F370" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="371" spans="1:6">
@@ -11000,7 +11019,7 @@
         <v>424</v>
       </c>
       <c r="F372" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -11034,7 +11053,7 @@
         <v>424</v>
       </c>
       <c r="F374" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="375" spans="1:6">
@@ -11068,7 +11087,7 @@
         <v>424</v>
       </c>
       <c r="F376" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="377" spans="1:6">
@@ -11136,7 +11155,7 @@
         <v>424</v>
       </c>
       <c r="F380" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="381" spans="1:6">
@@ -11153,7 +11172,7 @@
         <v>424</v>
       </c>
       <c r="F381" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="382" spans="1:6">
@@ -11187,7 +11206,7 @@
         <v>424</v>
       </c>
       <c r="F383" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="384" spans="1:6">
@@ -11238,7 +11257,7 @@
         <v>424</v>
       </c>
       <c r="F386" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="387" spans="1:6">
@@ -11289,7 +11308,7 @@
         <v>424</v>
       </c>
       <c r="F389" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="390" spans="1:6">
@@ -11306,7 +11325,7 @@
         <v>424</v>
       </c>
       <c r="F390" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="391" spans="1:6">
@@ -11351,13 +11370,13 @@
         <v>14</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D393" t="s">
         <v>424</v>
       </c>
       <c r="F393" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="394" spans="1:6">
@@ -11374,7 +11393,7 @@
         <v>424</v>
       </c>
       <c r="F394" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="395" spans="1:6">
@@ -11391,7 +11410,7 @@
         <v>424</v>
       </c>
       <c r="F395" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="396" spans="1:6">
@@ -11476,7 +11495,7 @@
         <v>424</v>
       </c>
       <c r="F400" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="401" spans="1:6">
@@ -11493,7 +11512,7 @@
         <v>424</v>
       </c>
       <c r="F401" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="402" spans="1:6">
@@ -11523,11 +11542,14 @@
       <c r="C403" t="s">
         <v>406</v>
       </c>
-      <c r="D403" t="s">
-        <v>405</v>
+      <c r="D403" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="E403" s="4" t="s">
+        <v>445</v>
       </c>
       <c r="F403" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="404" spans="1:6">
@@ -11544,7 +11566,7 @@
         <v>405</v>
       </c>
       <c r="F404" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="405" spans="1:6">
@@ -11561,7 +11583,7 @@
         <v>405</v>
       </c>
       <c r="F405" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="406" spans="1:6">
@@ -11595,7 +11617,7 @@
         <v>405</v>
       </c>
       <c r="F407" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="408" spans="1:6">
@@ -11612,7 +11634,7 @@
         <v>405</v>
       </c>
       <c r="F408" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="409" spans="1:6">
@@ -11629,7 +11651,7 @@
         <v>405</v>
       </c>
       <c r="F409" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="410" spans="1:6">
@@ -11646,7 +11668,7 @@
         <v>405</v>
       </c>
       <c r="F410" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="411" spans="1:6">
@@ -11663,7 +11685,7 @@
         <v>405</v>
       </c>
       <c r="F411" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="412" spans="1:6">
@@ -11680,7 +11702,7 @@
         <v>405</v>
       </c>
       <c r="F412" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="413" spans="1:6">
@@ -11697,7 +11719,7 @@
         <v>405</v>
       </c>
       <c r="F413" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="414" spans="1:6">
@@ -11714,7 +11736,7 @@
         <v>405</v>
       </c>
       <c r="F414" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="415" spans="1:6">
@@ -11731,7 +11753,7 @@
         <v>405</v>
       </c>
       <c r="F415" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="416" spans="1:6">
@@ -11765,7 +11787,7 @@
         <v>405</v>
       </c>
       <c r="F417" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="418" spans="1:6">

--- a/RhythmiCal/src/main/resources/스토리DB.xlsx
+++ b/RhythmiCal/src/main/resources/스토리DB.xlsx
@@ -4,19 +4,23 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590"/>
+    <workbookView xWindow="0" yWindow="2640" windowWidth="21300" windowHeight="9375" tabRatio="590"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$418</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="421">
   <si>
     <t>CONTENTORDER</t>
   </si>
@@ -180,24 +184,12 @@
     <t>숲속</t>
   </si>
   <si>
-    <t>비토벤</t>
-  </si>
-  <si>
     <t>???</t>
   </si>
   <si>
     <t>리드미</t>
   </si>
   <si>
-    <t>Dok3</t>
-  </si>
-  <si>
-    <t>적군a</t>
-  </si>
-  <si>
-    <t>적군b</t>
-  </si>
-  <si>
     <t>느낄 수 있어....새로운 스타의 탄생을!!</t>
   </si>
   <si>
@@ -399,9 +391,6 @@
     <t>이겼어...!!</t>
   </si>
   <si>
-    <t>마을 사람들</t>
-  </si>
-  <si>
     <t>우리가 이겼다구!!!!</t>
   </si>
   <si>
@@ -411,24 +400,15 @@
     <t>요! 데뷔무대, 성공적!</t>
   </si>
   <si>
-    <t>DOK3</t>
-  </si>
-  <si>
     <t>나보님!!</t>
   </si>
   <si>
     <t>적의 막사</t>
   </si>
   <si>
-    <t>부사관</t>
-  </si>
-  <si>
     <t>…엉??</t>
   </si>
   <si>
-    <t>나보</t>
-  </si>
-  <si>
     <t>제 1중대가 당했습니다.</t>
   </si>
   <si>
@@ -459,9 +439,6 @@
     <t>아...네...</t>
   </si>
   <si>
-    <t xml:space="preserve">비토벤 </t>
-  </si>
-  <si>
     <t>그중에서도 Came from bottom!! 이건 말야...</t>
   </si>
   <si>
@@ -582,15 +559,9 @@
     <t>월량풍!</t>
   </si>
   <si>
-    <t>노비토</t>
-  </si>
-  <si>
     <t>나보뇨속이 패했습니다!</t>
   </si>
   <si>
-    <t>월량풍</t>
-  </si>
-  <si>
     <t>마지막 마을을 남겨놓고 패배?</t>
   </si>
   <si>
@@ -618,24 +589,15 @@
     <t>마을</t>
   </si>
   <si>
-    <t>마을 사람 1</t>
-  </si>
-  <si>
     <t>와! 비토벤! 완전 적들을 뒤집어 놓으셨다!</t>
   </si>
   <si>
-    <t>마을 사람 2</t>
-  </si>
-  <si>
     <t>(으...쑥쓰러워!)</t>
   </si>
   <si>
     <t>저기....</t>
   </si>
   <si>
-    <t>마을 소년</t>
-  </si>
-  <si>
     <t>응?</t>
   </si>
   <si>
@@ -3926,12 +3888,6 @@
     <t>숲속</t>
   </si>
   <si>
-    <t>노비토</t>
-  </si>
-  <si>
-    <t>그녀</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">물론 </t>
     </r>
@@ -3945,16 +3901,6 @@
       </rPr>
       <t>평범한 칼이었어... 음악의 힘이니 말을 하거나 그런 능력은 없었지</t>
     </r>
-  </si>
-  <si>
-    <t>비토벤</t>
-  </si>
-  <si>
-    <t>비토벤</t>
-  </si>
-  <si>
-    <t>칼든비토벤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>이야야야얍!</t>
@@ -3997,14 +3943,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>월량풍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비토벤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>그래 뭐, 좋다! 간다! 이번엔 진심으로상대해주마!!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4013,31 +3951,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>리드미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노비토</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리드미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마을 소년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전당</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>쿠구궁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비토벤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4492,8 +4414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="C411" sqref="C411"/>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="E169" sqref="E169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4541,7 +4463,7 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4559,7 +4481,7 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4577,7 +4499,7 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4595,7 +4517,7 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4613,7 +4535,7 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4631,7 +4553,7 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4649,7 +4571,7 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4667,7 +4589,7 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4685,7 +4607,7 @@
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4703,7 +4625,7 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4721,7 +4643,7 @@
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4739,7 +4661,7 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4757,7 +4679,7 @@
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4775,7 +4697,7 @@
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4793,7 +4715,7 @@
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4811,7 +4733,7 @@
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4829,7 +4751,7 @@
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>58</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4847,7 +4769,7 @@
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>59</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4865,7 +4787,7 @@
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4883,7 +4805,7 @@
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>56</v>
+        <v>420</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4901,7 +4823,7 @@
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4919,7 +4841,7 @@
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4937,7 +4859,7 @@
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>56</v>
+        <v>420</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4955,7 +4877,7 @@
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4973,7 +4895,7 @@
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4991,7 +4913,7 @@
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>56</v>
+        <v>420</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -5009,7 +4931,7 @@
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>56</v>
+        <v>420</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -5027,7 +4949,7 @@
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>56</v>
+        <v>420</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -5045,7 +4967,7 @@
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -5063,7 +4985,7 @@
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>56</v>
+        <v>420</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -5081,7 +5003,7 @@
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -5092,14 +5014,14 @@
         <v>1</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -5116,7 +5038,7 @@
         <v>53</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>58</v>
+        <v>420</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -5127,14 +5049,14 @@
         <v>1</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>59</v>
+        <v>420</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -5152,7 +5074,7 @@
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>59</v>
+        <v>420</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -5170,7 +5092,7 @@
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -5188,7 +5110,7 @@
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -5206,7 +5128,7 @@
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>56</v>
+        <v>420</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -5224,7 +5146,7 @@
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>56</v>
+        <v>420</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -5242,7 +5164,7 @@
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -5260,7 +5182,7 @@
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>56</v>
+        <v>420</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -5278,7 +5200,7 @@
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>55</v>
+        <v>420</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -5296,7 +5218,7 @@
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -5314,7 +5236,7 @@
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>55</v>
+        <v>420</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -5332,7 +5254,7 @@
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -5350,7 +5272,7 @@
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -5368,7 +5290,7 @@
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
-        <v>56</v>
+        <v>420</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -5386,7 +5308,7 @@
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -5404,7 +5326,7 @@
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -5422,7 +5344,7 @@
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -5433,14 +5355,14 @@
         <v>2</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -5451,14 +5373,14 @@
         <v>2</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -5469,14 +5391,14 @@
         <v>2</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -5487,14 +5409,14 @@
         <v>2</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>56</v>
+        <v>420</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -5505,14 +5427,14 @@
         <v>2</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -5523,14 +5445,14 @@
         <v>2</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>56</v>
+        <v>420</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -5541,14 +5463,14 @@
         <v>2</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -5559,14 +5481,14 @@
         <v>2</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>56</v>
+        <v>420</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -5577,14 +5499,14 @@
         <v>2</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -5595,14 +5517,14 @@
         <v>2</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>56</v>
+        <v>420</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -5613,14 +5535,14 @@
         <v>2</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -5631,14 +5553,14 @@
         <v>2</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -5649,14 +5571,14 @@
         <v>2</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -5667,14 +5589,14 @@
         <v>2</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -5685,14 +5607,14 @@
         <v>2</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -5703,14 +5625,14 @@
         <v>2</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -5721,14 +5643,14 @@
         <v>2</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -5739,14 +5661,14 @@
         <v>2</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -5757,14 +5679,14 @@
         <v>2</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -5775,14 +5697,14 @@
         <v>2</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -5793,14 +5715,14 @@
         <v>2</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -5811,14 +5733,14 @@
         <v>2</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -5829,14 +5751,14 @@
         <v>2</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -5847,14 +5769,14 @@
         <v>2</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -5865,14 +5787,14 @@
         <v>2</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -5883,14 +5805,14 @@
         <v>2</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -5901,14 +5823,14 @@
         <v>2</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -5919,14 +5841,14 @@
         <v>2</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -5937,14 +5859,14 @@
         <v>3</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1" t="s">
-        <v>56</v>
+        <v>420</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -5955,14 +5877,14 @@
         <v>3</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -5973,14 +5895,14 @@
         <v>3</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1" t="s">
-        <v>56</v>
+        <v>420</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -5991,14 +5913,14 @@
         <v>3</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -6009,14 +5931,14 @@
         <v>3</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1" t="s">
-        <v>56</v>
+        <v>420</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -6027,14 +5949,14 @@
         <v>3</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -6045,14 +5967,14 @@
         <v>3</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1" t="s">
-        <v>56</v>
+        <v>420</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -6063,14 +5985,14 @@
         <v>3</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -6081,14 +6003,14 @@
         <v>3</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -6099,14 +6021,14 @@
         <v>3</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1" t="s">
-        <v>56</v>
+        <v>420</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -6117,14 +6039,14 @@
         <v>3</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -6135,14 +6057,14 @@
         <v>3</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -6153,14 +6075,14 @@
         <v>3</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -6171,14 +6093,14 @@
         <v>3</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -6189,14 +6111,14 @@
         <v>3</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -6207,14 +6129,14 @@
         <v>3</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -6225,14 +6147,14 @@
         <v>3</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -6243,14 +6165,14 @@
         <v>3</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1" t="s">
-        <v>56</v>
+        <v>420</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -6261,14 +6183,14 @@
         <v>3</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -6279,14 +6201,14 @@
         <v>3</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1" t="s">
-        <v>56</v>
+        <v>420</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -6297,14 +6219,14 @@
         <v>3</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -6315,14 +6237,14 @@
         <v>3</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1" t="s">
-        <v>56</v>
+        <v>420</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -6333,14 +6255,14 @@
         <v>3</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1" t="s">
-        <v>56</v>
+        <v>420</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -6351,14 +6273,14 @@
         <v>3</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1" t="s">
-        <v>56</v>
+        <v>420</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -6369,13 +6291,13 @@
         <v>3</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -6386,16 +6308,16 @@
         <v>3</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -6406,14 +6328,14 @@
         <v>3</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -6424,14 +6346,14 @@
         <v>3</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -6445,11 +6367,11 @@
         <v>46</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -6460,14 +6382,14 @@
         <v>3</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -6478,14 +6400,14 @@
         <v>3</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -6496,14 +6418,14 @@
         <v>3</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1" t="s">
-        <v>56</v>
+        <v>420</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -6514,14 +6436,14 @@
         <v>3</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -6532,14 +6454,14 @@
         <v>3</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1" t="s">
-        <v>56</v>
+        <v>420</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -6550,14 +6472,14 @@
         <v>3</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -6568,13 +6490,13 @@
         <v>4</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D115" t="s">
         <v>53</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -6585,13 +6507,13 @@
         <v>4</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D116" t="s">
         <v>53</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>56</v>
+        <v>420</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -6602,13 +6524,13 @@
         <v>4</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D117" t="s">
         <v>53</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>127</v>
+        <v>420</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -6619,13 +6541,13 @@
         <v>4</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D118" t="s">
         <v>53</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>127</v>
+        <v>420</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -6636,13 +6558,13 @@
         <v>4</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D119" t="s">
         <v>53</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>127</v>
+        <v>420</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -6653,13 +6575,13 @@
         <v>4</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D120" t="s">
         <v>53</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>131</v>
+        <v>420</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -6670,13 +6592,13 @@
         <v>4</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D121" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>134</v>
+        <v>420</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -6687,13 +6609,13 @@
         <v>4</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D122" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>136</v>
+        <v>420</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -6704,13 +6626,13 @@
         <v>4</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D123" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>134</v>
+        <v>420</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -6721,13 +6643,13 @@
         <v>4</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D124" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>136</v>
+        <v>420</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -6738,13 +6660,13 @@
         <v>4</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D125" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>134</v>
+        <v>420</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -6755,13 +6677,13 @@
         <v>4</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D126" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>134</v>
+        <v>420</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -6772,13 +6694,13 @@
         <v>4</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D127" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>134</v>
+        <v>420</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -6789,13 +6711,13 @@
         <v>4</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D128" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>136</v>
+        <v>420</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -6806,13 +6728,13 @@
         <v>4</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D129" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>134</v>
+        <v>420</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -6823,13 +6745,13 @@
         <v>4</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D130" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>136</v>
+        <v>420</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -6840,13 +6762,13 @@
         <v>5</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>131</v>
+        <v>420</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -6857,13 +6779,13 @@
         <v>5</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>147</v>
+        <v>420</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -6874,13 +6796,13 @@
         <v>5</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>131</v>
+        <v>420</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -6891,13 +6813,13 @@
         <v>5</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>147</v>
+        <v>420</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -6908,13 +6830,13 @@
         <v>5</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>56</v>
+        <v>420</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -6925,16 +6847,16 @@
         <v>5</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>127</v>
+        <v>420</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -6945,13 +6867,13 @@
         <v>5</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>131</v>
+        <v>420</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -6962,13 +6884,13 @@
         <v>5</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>127</v>
+        <v>420</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -6979,13 +6901,13 @@
         <v>5</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>127</v>
+        <v>420</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -6996,13 +6918,13 @@
         <v>5</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>131</v>
+        <v>420</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -7013,13 +6935,13 @@
         <v>5</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>147</v>
+        <v>420</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -7030,13 +6952,13 @@
         <v>5</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>131</v>
+        <v>420</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -7047,14 +6969,14 @@
         <v>5</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E143" s="4"/>
       <c r="F143" s="1" t="s">
-        <v>56</v>
+        <v>420</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -7065,13 +6987,13 @@
         <v>6</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>147</v>
+        <v>420</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -7082,13 +7004,13 @@
         <v>6</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>56</v>
+        <v>420</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -7099,13 +7021,13 @@
         <v>6</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>127</v>
+        <v>420</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -7116,13 +7038,13 @@
         <v>6</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>136</v>
+        <v>420</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -7133,13 +7055,13 @@
         <v>6</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>147</v>
+        <v>420</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -7150,13 +7072,13 @@
         <v>6</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>136</v>
+        <v>420</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -7167,13 +7089,13 @@
         <v>6</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>147</v>
+        <v>420</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -7184,13 +7106,13 @@
         <v>6</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>136</v>
+        <v>420</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -7201,13 +7123,13 @@
         <v>6</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>147</v>
+        <v>420</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -7218,13 +7140,13 @@
         <v>6</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>136</v>
+        <v>420</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -7235,13 +7157,13 @@
         <v>6</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>147</v>
+        <v>420</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -7252,13 +7174,13 @@
         <v>6</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>136</v>
+        <v>420</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -7269,13 +7191,13 @@
         <v>6</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>131</v>
+        <v>420</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="27">
@@ -7286,13 +7208,13 @@
         <v>6</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>147</v>
+        <v>420</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -7303,13 +7225,13 @@
         <v>6</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>136</v>
+        <v>420</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -7320,16 +7242,16 @@
         <v>6</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>147</v>
+        <v>420</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -7340,13 +7262,13 @@
         <v>6</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>136</v>
+        <v>420</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -7357,13 +7279,13 @@
         <v>6</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>136</v>
+        <v>420</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -7374,13 +7296,13 @@
         <v>6</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>136</v>
+        <v>420</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -7391,13 +7313,13 @@
         <v>6</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>136</v>
+        <v>420</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -7408,13 +7330,13 @@
         <v>6</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>147</v>
+        <v>420</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -7425,13 +7347,13 @@
         <v>6</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>56</v>
+        <v>420</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -7442,13 +7364,13 @@
         <v>6</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>127</v>
+        <v>420</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -7459,13 +7381,13 @@
         <v>6</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -7476,14 +7398,14 @@
         <v>6</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E168" s="4"/>
       <c r="F168" s="1" t="s">
-        <v>56</v>
+        <v>420</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -7494,14 +7416,14 @@
         <v>7</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E169" s="1"/>
       <c r="F169" s="1" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -7512,14 +7434,14 @@
         <v>7</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E170" s="1"/>
       <c r="F170" s="1" t="s">
-        <v>188</v>
+        <v>420</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -7530,14 +7452,14 @@
         <v>7</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E171" s="1"/>
       <c r="F171" s="1" t="s">
-        <v>190</v>
+        <v>420</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -7548,14 +7470,14 @@
         <v>7</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E172" s="1"/>
       <c r="F172" s="1" t="s">
-        <v>188</v>
+        <v>420</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -7566,14 +7488,14 @@
         <v>7</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E173" s="1"/>
       <c r="F173" s="1" t="s">
-        <v>190</v>
+        <v>420</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -7584,14 +7506,14 @@
         <v>7</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E174" s="1"/>
       <c r="F174" s="1" t="s">
-        <v>188</v>
+        <v>420</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -7602,14 +7524,14 @@
         <v>7</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E175" s="1"/>
       <c r="F175" s="1" t="s">
-        <v>190</v>
+        <v>420</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -7620,14 +7542,14 @@
         <v>7</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E176" s="1"/>
       <c r="F176" s="1" t="s">
-        <v>188</v>
+        <v>420</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -7638,14 +7560,14 @@
         <v>7</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E177" s="1"/>
       <c r="F177" s="1" t="s">
-        <v>190</v>
+        <v>420</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -7656,14 +7578,14 @@
         <v>7</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E178" s="1"/>
       <c r="F178" s="1" t="s">
-        <v>188</v>
+        <v>420</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -7674,14 +7596,14 @@
         <v>7</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E179" s="1"/>
       <c r="F179" s="1" t="s">
-        <v>190</v>
+        <v>420</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -7692,14 +7614,14 @@
         <v>8</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="E180" s="1"/>
       <c r="F180" s="1" t="s">
-        <v>200</v>
+        <v>420</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -7710,14 +7632,14 @@
         <v>8</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="E181" s="1"/>
       <c r="F181" s="1" t="s">
-        <v>202</v>
+        <v>420</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -7728,14 +7650,14 @@
         <v>8</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="E182" s="1"/>
       <c r="F182" s="1" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -7746,14 +7668,14 @@
         <v>8</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="E183" s="1"/>
       <c r="F183" s="1" t="s">
-        <v>205</v>
+        <v>420</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -7764,14 +7686,14 @@
         <v>8</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="E184" s="1"/>
       <c r="F184" s="1" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -7782,14 +7704,14 @@
         <v>8</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="E185" s="1"/>
       <c r="F185" s="1" t="s">
-        <v>205</v>
+        <v>420</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -7800,14 +7722,14 @@
         <v>8</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="E186" s="1"/>
       <c r="F186" s="1" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -7818,14 +7740,14 @@
         <v>8</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="E187" s="1"/>
       <c r="F187" s="1" t="s">
-        <v>205</v>
+        <v>420</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -7836,14 +7758,14 @@
         <v>8</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="E188" s="1"/>
       <c r="F188" s="1" t="s">
-        <v>56</v>
+        <v>420</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -7854,14 +7776,14 @@
         <v>8</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="E189" s="1"/>
       <c r="F189" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -7872,14 +7794,14 @@
         <v>8</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="E190" s="1"/>
       <c r="F190" s="1" t="s">
-        <v>205</v>
+        <v>420</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -7890,14 +7812,14 @@
         <v>8</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="E191" s="1"/>
       <c r="F191" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -7908,14 +7830,14 @@
         <v>8</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="E192" s="1"/>
       <c r="F192" s="1" t="s">
-        <v>56</v>
+        <v>420</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -7926,14 +7848,14 @@
         <v>8</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="E193" s="1"/>
       <c r="F193" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -7944,14 +7866,14 @@
         <v>8</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="E194" s="1"/>
       <c r="F194" s="1" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -7962,14 +7884,14 @@
         <v>8</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="E195" s="1"/>
       <c r="F195" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -7980,14 +7902,14 @@
         <v>8</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="E196" s="1"/>
       <c r="F196" s="1" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -7998,14 +7920,14 @@
         <v>8</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="E197" s="1"/>
       <c r="F197" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -8016,14 +7938,14 @@
         <v>8</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="E198" s="1"/>
       <c r="F198" s="1" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -8034,14 +7956,14 @@
         <v>8</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="E199" s="1"/>
       <c r="F199" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -8052,14 +7974,14 @@
         <v>8</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="E200" s="1"/>
       <c r="F200" s="1" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -8070,14 +7992,14 @@
         <v>8</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="E201" s="1"/>
       <c r="F201" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -8088,14 +8010,14 @@
         <v>8</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="E202" s="1"/>
       <c r="F202" s="1" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -8106,13 +8028,13 @@
         <v>8</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -8123,14 +8045,14 @@
         <v>8</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="E204" s="4"/>
       <c r="F204" s="1" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -8141,13 +8063,13 @@
         <v>9</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -8158,13 +8080,13 @@
         <v>9</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>56</v>
+        <v>420</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -8175,14 +8097,14 @@
         <v>9</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="E207" s="4"/>
       <c r="F207" s="1" t="s">
-        <v>127</v>
+        <v>420</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -8193,13 +8115,13 @@
         <v>9</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>127</v>
+        <v>420</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -8210,13 +8132,13 @@
         <v>9</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>127</v>
+        <v>420</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -8227,13 +8149,13 @@
         <v>9</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -8244,13 +8166,13 @@
         <v>9</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>56</v>
+        <v>420</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -8261,13 +8183,13 @@
         <v>9</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -8278,13 +8200,13 @@
         <v>9</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>127</v>
+        <v>420</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -8295,13 +8217,13 @@
         <v>9</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -8312,13 +8234,13 @@
         <v>9</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>127</v>
+        <v>420</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -8329,13 +8251,13 @@
         <v>9</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -8346,13 +8268,13 @@
         <v>9</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>127</v>
+        <v>420</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -8363,14 +8285,14 @@
         <v>9</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="E218" s="4"/>
       <c r="F218" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -8381,14 +8303,14 @@
         <v>10</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="E219" s="1"/>
       <c r="F219" s="1" t="s">
-        <v>190</v>
+        <v>420</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -8399,14 +8321,14 @@
         <v>10</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="E220" s="1"/>
       <c r="F220" s="1" t="s">
-        <v>190</v>
+        <v>420</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -8417,14 +8339,14 @@
         <v>10</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="E221" s="1"/>
       <c r="F221" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -8435,14 +8357,14 @@
         <v>10</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="E222" s="1"/>
       <c r="F222" s="1" t="s">
-        <v>190</v>
+        <v>420</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -8453,14 +8375,14 @@
         <v>10</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="E223" s="1"/>
       <c r="F223" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -8471,14 +8393,14 @@
         <v>10</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="E224" s="1"/>
       <c r="F224" s="1" t="s">
-        <v>190</v>
+        <v>420</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -8489,14 +8411,14 @@
         <v>10</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="E225" s="1"/>
       <c r="F225" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -8507,14 +8429,14 @@
         <v>10</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="E226" s="1"/>
       <c r="F226" s="1" t="s">
-        <v>190</v>
+        <v>420</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -8525,14 +8447,14 @@
         <v>10</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="E227" s="1"/>
       <c r="F227" s="1" t="s">
-        <v>190</v>
+        <v>420</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -8543,14 +8465,14 @@
         <v>10</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="E228" s="1"/>
       <c r="F228" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -8561,14 +8483,14 @@
         <v>10</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="E229" s="1"/>
       <c r="F229" s="1" t="s">
-        <v>190</v>
+        <v>420</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -8579,14 +8501,14 @@
         <v>10</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="E230" s="1"/>
       <c r="F230" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -8597,14 +8519,14 @@
         <v>10</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="E231" s="1"/>
       <c r="F231" s="1" t="s">
-        <v>190</v>
+        <v>420</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -8615,14 +8537,14 @@
         <v>10</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="E232" s="1"/>
       <c r="F232" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -8633,14 +8555,14 @@
         <v>10</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="E233" s="1"/>
       <c r="F233" s="1" t="s">
-        <v>190</v>
+        <v>420</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -8651,14 +8573,14 @@
         <v>10</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="E234" s="1"/>
       <c r="F234" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -8669,14 +8591,14 @@
         <v>10</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="E235" s="1"/>
       <c r="F235" s="1" t="s">
-        <v>190</v>
+        <v>420</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -8687,14 +8609,14 @@
         <v>10</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="E236" s="1"/>
       <c r="F236" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -8705,14 +8627,14 @@
         <v>10</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="E237" s="1"/>
       <c r="F237" s="1" t="s">
-        <v>190</v>
+        <v>420</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -8723,14 +8645,14 @@
         <v>10</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="E238" s="1"/>
       <c r="F238" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -8741,14 +8663,14 @@
         <v>10</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="E239" s="1"/>
       <c r="F239" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -8759,14 +8681,14 @@
         <v>10</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="E240" s="1"/>
       <c r="F240" s="1" t="s">
-        <v>190</v>
+        <v>420</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -8777,14 +8699,14 @@
         <v>10</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="E241" s="1"/>
       <c r="F241" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -8795,14 +8717,14 @@
         <v>10</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="E242" s="1"/>
       <c r="F242" s="1" t="s">
-        <v>190</v>
+        <v>420</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -8813,14 +8735,14 @@
         <v>10</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="E243" s="1"/>
       <c r="F243" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -8831,14 +8753,14 @@
         <v>10</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="E244" s="1"/>
       <c r="F244" s="1" t="s">
-        <v>190</v>
+        <v>420</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -8849,14 +8771,14 @@
         <v>10</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="E245" s="1"/>
       <c r="F245" s="1" t="s">
-        <v>190</v>
+        <v>420</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -8867,14 +8789,14 @@
         <v>10</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="E246" s="1"/>
       <c r="F246" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -8885,14 +8807,14 @@
         <v>10</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="E247" s="1"/>
       <c r="F247" s="1" t="s">
-        <v>190</v>
+        <v>420</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -8903,14 +8825,14 @@
         <v>10</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="E248" s="1"/>
       <c r="F248" s="1" t="s">
-        <v>56</v>
+        <v>420</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -8921,14 +8843,14 @@
         <v>10</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="E249" s="1"/>
       <c r="F249" s="1" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -8939,13 +8861,13 @@
         <v>11</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -8956,13 +8878,13 @@
         <v>11</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -8973,13 +8895,13 @@
         <v>11</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -8990,13 +8912,13 @@
         <v>11</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -9007,13 +8929,13 @@
         <v>11</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -9024,13 +8946,13 @@
         <v>11</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -9041,13 +8963,13 @@
         <v>11</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -9058,13 +8980,13 @@
         <v>11</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -9075,13 +8997,13 @@
         <v>11</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -9092,13 +9014,13 @@
         <v>11</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -9109,13 +9031,13 @@
         <v>11</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -9126,13 +9048,13 @@
         <v>11</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -9143,13 +9065,13 @@
         <v>11</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -9160,13 +9082,13 @@
         <v>11</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="D263" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -9177,13 +9099,13 @@
         <v>11</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="D264" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -9194,13 +9116,13 @@
         <v>11</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="D265" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -9211,13 +9133,13 @@
         <v>11</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="D266" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -9228,13 +9150,13 @@
         <v>11</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="D267" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -9245,13 +9167,13 @@
         <v>11</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="D268" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -9262,13 +9184,13 @@
         <v>11</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="D269" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -9279,13 +9201,13 @@
         <v>11</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D270" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -9296,13 +9218,13 @@
         <v>11</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="D271" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -9313,13 +9235,13 @@
         <v>11</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="D272" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -9330,13 +9252,13 @@
         <v>11</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="D273" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -9347,13 +9269,13 @@
         <v>11</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="D274" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -9364,13 +9286,13 @@
         <v>11</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="D275" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -9381,13 +9303,13 @@
         <v>11</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="D276" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -9398,13 +9320,13 @@
         <v>11</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="D277" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -9415,13 +9337,13 @@
         <v>11</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="D278" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -9432,13 +9354,13 @@
         <v>11</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="D279" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -9449,13 +9371,13 @@
         <v>11</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="D280" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -9466,13 +9388,13 @@
         <v>11</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="D281" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -9483,13 +9405,13 @@
         <v>11</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="D282" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -9500,13 +9422,13 @@
         <v>11</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="D283" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -9517,13 +9439,13 @@
         <v>11</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="D284" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -9534,13 +9456,13 @@
         <v>11</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="D285" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -9551,13 +9473,13 @@
         <v>11</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="D286" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -9568,13 +9490,13 @@
         <v>11</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="D287" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -9585,13 +9507,13 @@
         <v>11</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="D288" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -9602,13 +9524,13 @@
         <v>11</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="D289" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -9619,13 +9541,13 @@
         <v>11</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="D290" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -9636,13 +9558,13 @@
         <v>11</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="D291" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -9653,13 +9575,13 @@
         <v>12</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="D292" t="s">
-        <v>424</v>
-      </c>
-      <c r="F292" s="4" t="s">
-        <v>430</v>
+        <v>410</v>
+      </c>
+      <c r="F292" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -9670,13 +9592,13 @@
         <v>12</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="D293" t="s">
-        <v>424</v>
-      </c>
-      <c r="F293" t="s">
-        <v>188</v>
+        <v>410</v>
+      </c>
+      <c r="F293" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -9687,13 +9609,13 @@
         <v>12</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="D294" t="s">
-        <v>424</v>
-      </c>
-      <c r="F294" s="4" t="s">
-        <v>430</v>
+        <v>410</v>
+      </c>
+      <c r="F294" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -9704,13 +9626,13 @@
         <v>12</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="D295" t="s">
-        <v>424</v>
-      </c>
-      <c r="F295" t="s">
-        <v>188</v>
+        <v>410</v>
+      </c>
+      <c r="F295" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -9721,13 +9643,13 @@
         <v>12</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="D296" t="s">
-        <v>424</v>
-      </c>
-      <c r="F296" t="s">
-        <v>188</v>
+        <v>410</v>
+      </c>
+      <c r="F296" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -9738,13 +9660,13 @@
         <v>12</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="D297" t="s">
-        <v>424</v>
-      </c>
-      <c r="F297" t="s">
-        <v>188</v>
+        <v>410</v>
+      </c>
+      <c r="F297" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -9755,13 +9677,13 @@
         <v>12</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="D298" t="s">
-        <v>424</v>
-      </c>
-      <c r="F298" s="4" t="s">
-        <v>430</v>
+        <v>410</v>
+      </c>
+      <c r="F298" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -9772,13 +9694,13 @@
         <v>12</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="D299" t="s">
-        <v>424</v>
-      </c>
-      <c r="F299" t="s">
-        <v>188</v>
+        <v>410</v>
+      </c>
+      <c r="F299" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -9789,13 +9711,13 @@
         <v>12</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="D300" t="s">
-        <v>424</v>
-      </c>
-      <c r="F300" t="s">
-        <v>188</v>
+        <v>410</v>
+      </c>
+      <c r="F300" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -9806,13 +9728,13 @@
         <v>12</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="D301" t="s">
-        <v>424</v>
-      </c>
-      <c r="F301" t="s">
-        <v>188</v>
+        <v>410</v>
+      </c>
+      <c r="F301" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -9823,13 +9745,13 @@
         <v>13</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="D302" t="s">
-        <v>424</v>
-      </c>
-      <c r="F302" t="s">
-        <v>188</v>
+        <v>410</v>
+      </c>
+      <c r="F302" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -9840,13 +9762,13 @@
         <v>13</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="D303" t="s">
-        <v>424</v>
-      </c>
-      <c r="F303" s="4" t="s">
-        <v>430</v>
+        <v>410</v>
+      </c>
+      <c r="F303" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -9857,13 +9779,13 @@
         <v>13</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="D304" t="s">
-        <v>424</v>
-      </c>
-      <c r="F304" t="s">
-        <v>188</v>
+        <v>410</v>
+      </c>
+      <c r="F304" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -9874,13 +9796,13 @@
         <v>13</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="D305" t="s">
-        <v>424</v>
-      </c>
-      <c r="F305" s="4" t="s">
-        <v>430</v>
+        <v>410</v>
+      </c>
+      <c r="F305" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -9891,13 +9813,13 @@
         <v>13</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="D306" t="s">
-        <v>424</v>
-      </c>
-      <c r="F306" s="4" t="s">
-        <v>430</v>
+        <v>410</v>
+      </c>
+      <c r="F306" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -9908,13 +9830,13 @@
         <v>13</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="D307" t="s">
-        <v>424</v>
-      </c>
-      <c r="F307" t="s">
-        <v>205</v>
+        <v>410</v>
+      </c>
+      <c r="F307" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -9925,13 +9847,13 @@
         <v>13</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="D308" t="s">
-        <v>424</v>
-      </c>
-      <c r="F308" s="4" t="s">
-        <v>430</v>
+        <v>410</v>
+      </c>
+      <c r="F308" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -9942,13 +9864,13 @@
         <v>13</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="D309" t="s">
-        <v>424</v>
-      </c>
-      <c r="F309" s="4" t="s">
-        <v>443</v>
+        <v>410</v>
+      </c>
+      <c r="F309" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -9959,13 +9881,13 @@
         <v>13</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D310" t="s">
-        <v>424</v>
-      </c>
-      <c r="F310" s="4" t="s">
-        <v>430</v>
+        <v>410</v>
+      </c>
+      <c r="F310" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -9976,13 +9898,13 @@
         <v>13</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="D311" t="s">
-        <v>424</v>
-      </c>
-      <c r="F311" t="s">
-        <v>205</v>
+        <v>410</v>
+      </c>
+      <c r="F311" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -9993,13 +9915,13 @@
         <v>13</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="D312" t="s">
-        <v>424</v>
-      </c>
-      <c r="F312" t="s">
-        <v>127</v>
+        <v>410</v>
+      </c>
+      <c r="F312" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -10010,13 +9932,13 @@
         <v>13</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="D313" t="s">
-        <v>424</v>
-      </c>
-      <c r="F313" t="s">
-        <v>127</v>
+        <v>410</v>
+      </c>
+      <c r="F313" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -10027,13 +9949,13 @@
         <v>13</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="D314" t="s">
-        <v>424</v>
-      </c>
-      <c r="F314" t="s">
-        <v>127</v>
+        <v>410</v>
+      </c>
+      <c r="F314" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -10044,13 +9966,13 @@
         <v>13</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="D315" t="s">
-        <v>424</v>
-      </c>
-      <c r="F315" s="4" t="s">
-        <v>430</v>
+        <v>410</v>
+      </c>
+      <c r="F315" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -10061,13 +9983,13 @@
         <v>13</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="D316" t="s">
-        <v>424</v>
-      </c>
-      <c r="F316" s="4" t="s">
-        <v>430</v>
+        <v>410</v>
+      </c>
+      <c r="F316" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -10078,13 +10000,13 @@
         <v>13</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="D317" t="s">
-        <v>424</v>
-      </c>
-      <c r="F317" s="4" t="s">
-        <v>430</v>
+        <v>410</v>
+      </c>
+      <c r="F317" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -10095,13 +10017,13 @@
         <v>13</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="D318" t="s">
-        <v>424</v>
-      </c>
-      <c r="F318" s="4" t="s">
-        <v>430</v>
+        <v>410</v>
+      </c>
+      <c r="F318" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -10112,13 +10034,13 @@
         <v>13</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="D319" t="s">
-        <v>424</v>
-      </c>
-      <c r="F319" s="4" t="s">
-        <v>430</v>
+        <v>410</v>
+      </c>
+      <c r="F319" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -10129,13 +10051,13 @@
         <v>13</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="D320" t="s">
-        <v>424</v>
-      </c>
-      <c r="F320" t="s">
-        <v>56</v>
+        <v>410</v>
+      </c>
+      <c r="F320" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -10146,13 +10068,13 @@
         <v>13</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="D321" t="s">
-        <v>424</v>
-      </c>
-      <c r="F321" t="s">
-        <v>188</v>
+        <v>410</v>
+      </c>
+      <c r="F321" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -10163,13 +10085,13 @@
         <v>13</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D322" t="s">
-        <v>424</v>
-      </c>
-      <c r="F322" s="4" t="s">
-        <v>430</v>
+        <v>410</v>
+      </c>
+      <c r="F322" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -10180,13 +10102,13 @@
         <v>13</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="D323" t="s">
-        <v>424</v>
-      </c>
-      <c r="F323" t="s">
-        <v>188</v>
+        <v>410</v>
+      </c>
+      <c r="F323" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -10197,13 +10119,13 @@
         <v>13</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="D324" t="s">
-        <v>424</v>
-      </c>
-      <c r="F324" s="4" t="s">
-        <v>430</v>
+        <v>410</v>
+      </c>
+      <c r="F324" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -10214,13 +10136,13 @@
         <v>13</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="D325" t="s">
-        <v>424</v>
-      </c>
-      <c r="F325" t="s">
-        <v>188</v>
+        <v>410</v>
+      </c>
+      <c r="F325" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -10234,10 +10156,10 @@
         <v>13</v>
       </c>
       <c r="D326" t="s">
-        <v>424</v>
-      </c>
-      <c r="F326" s="4" t="s">
-        <v>430</v>
+        <v>410</v>
+      </c>
+      <c r="F326" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -10248,13 +10170,13 @@
         <v>13</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="D327" t="s">
-        <v>424</v>
-      </c>
-      <c r="F327" t="s">
-        <v>56</v>
+        <v>410</v>
+      </c>
+      <c r="F327" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -10265,13 +10187,13 @@
         <v>13</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="D328" t="s">
-        <v>424</v>
-      </c>
-      <c r="F328" t="s">
-        <v>56</v>
+        <v>410</v>
+      </c>
+      <c r="F328" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -10282,13 +10204,13 @@
         <v>13</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="D329" t="s">
-        <v>424</v>
-      </c>
-      <c r="F329" s="4" t="s">
-        <v>430</v>
+        <v>410</v>
+      </c>
+      <c r="F329" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -10299,13 +10221,13 @@
         <v>13</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="D330" t="s">
-        <v>424</v>
-      </c>
-      <c r="F330" t="s">
-        <v>188</v>
+        <v>410</v>
+      </c>
+      <c r="F330" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -10316,13 +10238,13 @@
         <v>14</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="D331" t="s">
-        <v>424</v>
-      </c>
-      <c r="F331" s="4" t="s">
-        <v>430</v>
+        <v>410</v>
+      </c>
+      <c r="F331" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -10333,13 +10255,13 @@
         <v>14</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="D332" t="s">
-        <v>424</v>
-      </c>
-      <c r="F332" t="s">
-        <v>127</v>
+        <v>410</v>
+      </c>
+      <c r="F332" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -10350,13 +10272,13 @@
         <v>14</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="D333" t="s">
-        <v>424</v>
-      </c>
-      <c r="F333" t="s">
-        <v>127</v>
+        <v>410</v>
+      </c>
+      <c r="F333" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -10367,13 +10289,13 @@
         <v>14</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="D334" t="s">
-        <v>424</v>
-      </c>
-      <c r="F334" t="s">
-        <v>188</v>
+        <v>410</v>
+      </c>
+      <c r="F334" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -10384,13 +10306,13 @@
         <v>14</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="D335" t="s">
-        <v>424</v>
-      </c>
-      <c r="F335" s="4" t="s">
-        <v>430</v>
+        <v>410</v>
+      </c>
+      <c r="F335" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -10401,13 +10323,13 @@
         <v>14</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="D336" t="s">
-        <v>424</v>
-      </c>
-      <c r="F336" s="4" t="s">
-        <v>430</v>
+        <v>410</v>
+      </c>
+      <c r="F336" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -10418,13 +10340,13 @@
         <v>14</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="D337" t="s">
-        <v>424</v>
-      </c>
-      <c r="F337" t="s">
-        <v>188</v>
+        <v>410</v>
+      </c>
+      <c r="F337" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -10435,13 +10357,13 @@
         <v>14</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="D338" t="s">
-        <v>424</v>
-      </c>
-      <c r="F338" t="s">
-        <v>54</v>
+        <v>410</v>
+      </c>
+      <c r="F338" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -10452,13 +10374,13 @@
         <v>14</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="D339" t="s">
-        <v>424</v>
-      </c>
-      <c r="F339" t="s">
-        <v>188</v>
+        <v>410</v>
+      </c>
+      <c r="F339" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -10469,13 +10391,13 @@
         <v>14</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="D340" t="s">
-        <v>424</v>
-      </c>
-      <c r="F340" t="s">
-        <v>188</v>
+        <v>410</v>
+      </c>
+      <c r="F340" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -10486,13 +10408,13 @@
         <v>14</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="D341" t="s">
-        <v>424</v>
-      </c>
-      <c r="F341" t="s">
-        <v>56</v>
+        <v>410</v>
+      </c>
+      <c r="F341" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -10503,13 +10425,13 @@
         <v>14</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="D342" t="s">
-        <v>424</v>
-      </c>
-      <c r="F342" t="s">
-        <v>127</v>
+        <v>410</v>
+      </c>
+      <c r="F342" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -10520,13 +10442,13 @@
         <v>14</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="D343" t="s">
-        <v>424</v>
-      </c>
-      <c r="F343" t="s">
-        <v>188</v>
+        <v>410</v>
+      </c>
+      <c r="F343" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -10537,13 +10459,13 @@
         <v>14</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="D344" t="s">
-        <v>424</v>
-      </c>
-      <c r="F344" t="s">
-        <v>188</v>
+        <v>410</v>
+      </c>
+      <c r="F344" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -10554,13 +10476,13 @@
         <v>14</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="D345" t="s">
-        <v>424</v>
-      </c>
-      <c r="F345" t="s">
-        <v>425</v>
+        <v>410</v>
+      </c>
+      <c r="F345" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -10571,13 +10493,13 @@
         <v>14</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="D346" t="s">
-        <v>424</v>
-      </c>
-      <c r="F346" t="s">
-        <v>127</v>
+        <v>410</v>
+      </c>
+      <c r="F346" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -10588,13 +10510,13 @@
         <v>14</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="D347" t="s">
-        <v>424</v>
-      </c>
-      <c r="F347" t="s">
-        <v>57</v>
+        <v>410</v>
+      </c>
+      <c r="F347" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -10605,13 +10527,13 @@
         <v>14</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="D348" t="s">
-        <v>424</v>
-      </c>
-      <c r="F348" t="s">
-        <v>56</v>
+        <v>410</v>
+      </c>
+      <c r="F348" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -10622,13 +10544,13 @@
         <v>14</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="D349" t="s">
-        <v>424</v>
-      </c>
-      <c r="F349" t="s">
-        <v>54</v>
+        <v>410</v>
+      </c>
+      <c r="F349" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -10639,13 +10561,13 @@
         <v>14</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="D350" t="s">
-        <v>424</v>
-      </c>
-      <c r="F350" t="s">
-        <v>425</v>
+        <v>410</v>
+      </c>
+      <c r="F350" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -10656,13 +10578,13 @@
         <v>14</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="D351" t="s">
-        <v>424</v>
-      </c>
-      <c r="F351" t="s">
-        <v>425</v>
+        <v>410</v>
+      </c>
+      <c r="F351" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -10673,13 +10595,13 @@
         <v>14</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="D352" t="s">
-        <v>424</v>
-      </c>
-      <c r="F352" t="s">
-        <v>425</v>
+        <v>410</v>
+      </c>
+      <c r="F352" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -10690,13 +10612,13 @@
         <v>14</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="D353" t="s">
-        <v>424</v>
-      </c>
-      <c r="F353" t="s">
-        <v>426</v>
+        <v>410</v>
+      </c>
+      <c r="F353" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -10707,13 +10629,13 @@
         <v>14</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="D354" t="s">
-        <v>424</v>
-      </c>
-      <c r="F354" t="s">
-        <v>426</v>
+        <v>410</v>
+      </c>
+      <c r="F354" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -10724,13 +10646,13 @@
         <v>14</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="D355" t="s">
-        <v>424</v>
-      </c>
-      <c r="F355" t="s">
-        <v>426</v>
+        <v>410</v>
+      </c>
+      <c r="F355" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -10741,13 +10663,13 @@
         <v>14</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="D356" t="s">
-        <v>424</v>
-      </c>
-      <c r="F356" t="s">
-        <v>425</v>
+        <v>410</v>
+      </c>
+      <c r="F356" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -10758,13 +10680,13 @@
         <v>14</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="D357" t="s">
-        <v>424</v>
-      </c>
-      <c r="F357" t="s">
-        <v>127</v>
+        <v>410</v>
+      </c>
+      <c r="F357" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -10775,13 +10697,13 @@
         <v>14</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="D358" t="s">
-        <v>424</v>
-      </c>
-      <c r="F358" t="s">
-        <v>57</v>
+        <v>410</v>
+      </c>
+      <c r="F358" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="359" spans="1:6">
@@ -10792,13 +10714,13 @@
         <v>14</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="D359" t="s">
-        <v>424</v>
-      </c>
-      <c r="F359" t="s">
-        <v>56</v>
+        <v>410</v>
+      </c>
+      <c r="F359" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="360" spans="1:6">
@@ -10809,13 +10731,13 @@
         <v>14</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="D360" t="s">
-        <v>424</v>
-      </c>
-      <c r="F360" t="s">
-        <v>54</v>
+        <v>410</v>
+      </c>
+      <c r="F360" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="361" spans="1:6">
@@ -10826,13 +10748,13 @@
         <v>14</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="D361" t="s">
-        <v>424</v>
-      </c>
-      <c r="F361" t="s">
-        <v>425</v>
+        <v>410</v>
+      </c>
+      <c r="F361" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="362" spans="1:6">
@@ -10843,13 +10765,13 @@
         <v>14</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="D362" t="s">
-        <v>424</v>
-      </c>
-      <c r="F362" t="s">
-        <v>425</v>
+        <v>410</v>
+      </c>
+      <c r="F362" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="363" spans="1:6">
@@ -10860,13 +10782,13 @@
         <v>14</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="D363" t="s">
-        <v>424</v>
-      </c>
-      <c r="F363" t="s">
-        <v>127</v>
+        <v>410</v>
+      </c>
+      <c r="F363" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="364" spans="1:6">
@@ -10877,13 +10799,13 @@
         <v>14</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="D364" t="s">
-        <v>424</v>
-      </c>
-      <c r="F364" t="s">
-        <v>57</v>
+        <v>410</v>
+      </c>
+      <c r="F364" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -10894,13 +10816,13 @@
         <v>14</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="D365" t="s">
-        <v>424</v>
-      </c>
-      <c r="F365" t="s">
-        <v>54</v>
+        <v>410</v>
+      </c>
+      <c r="F365" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="366" spans="1:6">
@@ -10911,13 +10833,13 @@
         <v>14</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="D366" t="s">
-        <v>424</v>
-      </c>
-      <c r="F366" t="s">
-        <v>56</v>
+        <v>410</v>
+      </c>
+      <c r="F366" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="367" spans="1:6">
@@ -10928,13 +10850,13 @@
         <v>14</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="D367" t="s">
-        <v>424</v>
-      </c>
-      <c r="F367" t="s">
-        <v>54</v>
+        <v>410</v>
+      </c>
+      <c r="F367" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="368" spans="1:6">
@@ -10945,13 +10867,13 @@
         <v>14</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="D368" t="s">
-        <v>424</v>
-      </c>
-      <c r="F368" t="s">
-        <v>425</v>
+        <v>410</v>
+      </c>
+      <c r="F368" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="369" spans="1:6">
@@ -10962,13 +10884,13 @@
         <v>14</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="D369" t="s">
-        <v>424</v>
-      </c>
-      <c r="F369" t="s">
-        <v>54</v>
+        <v>410</v>
+      </c>
+      <c r="F369" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="370" spans="1:6">
@@ -10979,13 +10901,13 @@
         <v>14</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="D370" t="s">
-        <v>424</v>
-      </c>
-      <c r="F370" t="s">
-        <v>425</v>
+        <v>410</v>
+      </c>
+      <c r="F370" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="371" spans="1:6">
@@ -10996,13 +10918,13 @@
         <v>14</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="D371" t="s">
-        <v>424</v>
-      </c>
-      <c r="F371" t="s">
-        <v>54</v>
+        <v>410</v>
+      </c>
+      <c r="F371" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -11013,13 +10935,13 @@
         <v>14</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="D372" t="s">
-        <v>424</v>
-      </c>
-      <c r="F372" t="s">
-        <v>425</v>
+        <v>410</v>
+      </c>
+      <c r="F372" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -11030,13 +10952,13 @@
         <v>14</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="D373" t="s">
-        <v>424</v>
-      </c>
-      <c r="F373" t="s">
-        <v>54</v>
+        <v>410</v>
+      </c>
+      <c r="F373" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="374" spans="1:6">
@@ -11047,13 +10969,13 @@
         <v>14</v>
       </c>
       <c r="C374" s="3" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="D374" t="s">
-        <v>424</v>
-      </c>
-      <c r="F374" t="s">
-        <v>425</v>
+        <v>410</v>
+      </c>
+      <c r="F374" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="375" spans="1:6">
@@ -11064,13 +10986,13 @@
         <v>14</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="D375" t="s">
-        <v>424</v>
-      </c>
-      <c r="F375" t="s">
-        <v>54</v>
+        <v>410</v>
+      </c>
+      <c r="F375" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="376" spans="1:6">
@@ -11081,13 +11003,13 @@
         <v>14</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="D376" t="s">
-        <v>424</v>
-      </c>
-      <c r="F376" t="s">
-        <v>425</v>
+        <v>410</v>
+      </c>
+      <c r="F376" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="377" spans="1:6">
@@ -11098,13 +11020,13 @@
         <v>14</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="D377" t="s">
-        <v>424</v>
-      </c>
-      <c r="F377" t="s">
-        <v>54</v>
+        <v>410</v>
+      </c>
+      <c r="F377" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="378" spans="1:6">
@@ -11115,13 +11037,13 @@
         <v>14</v>
       </c>
       <c r="C378" s="3" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="D378" t="s">
-        <v>424</v>
-      </c>
-      <c r="F378" t="s">
-        <v>54</v>
+        <v>410</v>
+      </c>
+      <c r="F378" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="379" spans="1:6">
@@ -11132,13 +11054,13 @@
         <v>14</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="D379" t="s">
-        <v>424</v>
-      </c>
-      <c r="F379" t="s">
-        <v>54</v>
+        <v>410</v>
+      </c>
+      <c r="F379" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="380" spans="1:6">
@@ -11149,13 +11071,13 @@
         <v>14</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="D380" t="s">
-        <v>424</v>
-      </c>
-      <c r="F380" t="s">
-        <v>425</v>
+        <v>410</v>
+      </c>
+      <c r="F380" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="381" spans="1:6">
@@ -11166,13 +11088,13 @@
         <v>14</v>
       </c>
       <c r="C381" s="3" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="D381" t="s">
-        <v>424</v>
-      </c>
-      <c r="F381" t="s">
-        <v>425</v>
+        <v>410</v>
+      </c>
+      <c r="F381" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="382" spans="1:6">
@@ -11183,13 +11105,13 @@
         <v>14</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="D382" t="s">
-        <v>424</v>
-      </c>
-      <c r="F382" t="s">
-        <v>54</v>
+        <v>410</v>
+      </c>
+      <c r="F382" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="383" spans="1:6">
@@ -11200,13 +11122,13 @@
         <v>14</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="D383" t="s">
-        <v>424</v>
-      </c>
-      <c r="F383" t="s">
-        <v>425</v>
+        <v>410</v>
+      </c>
+      <c r="F383" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="384" spans="1:6">
@@ -11220,10 +11142,10 @@
         <v>13</v>
       </c>
       <c r="D384" t="s">
-        <v>424</v>
-      </c>
-      <c r="F384" t="s">
-        <v>54</v>
+        <v>410</v>
+      </c>
+      <c r="F384" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="385" spans="1:6">
@@ -11237,10 +11159,10 @@
         <v>13</v>
       </c>
       <c r="D385" t="s">
-        <v>424</v>
-      </c>
-      <c r="F385" t="s">
-        <v>56</v>
+        <v>410</v>
+      </c>
+      <c r="F385" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="386" spans="1:6">
@@ -11251,13 +11173,13 @@
         <v>14</v>
       </c>
       <c r="C386" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="D386" t="s">
-        <v>424</v>
-      </c>
-      <c r="F386" t="s">
-        <v>425</v>
+        <v>410</v>
+      </c>
+      <c r="F386" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="387" spans="1:6">
@@ -11268,13 +11190,13 @@
         <v>14</v>
       </c>
       <c r="C387" s="3" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="D387" t="s">
-        <v>424</v>
-      </c>
-      <c r="F387" t="s">
-        <v>54</v>
+        <v>410</v>
+      </c>
+      <c r="F387" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="388" spans="1:6">
@@ -11285,13 +11207,13 @@
         <v>14</v>
       </c>
       <c r="C388" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="D388" t="s">
-        <v>424</v>
-      </c>
-      <c r="F388" t="s">
-        <v>56</v>
+        <v>410</v>
+      </c>
+      <c r="F388" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="389" spans="1:6">
@@ -11302,13 +11224,13 @@
         <v>14</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="D389" t="s">
-        <v>424</v>
-      </c>
-      <c r="F389" t="s">
-        <v>425</v>
+        <v>410</v>
+      </c>
+      <c r="F389" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="390" spans="1:6">
@@ -11319,13 +11241,13 @@
         <v>14</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="D390" t="s">
-        <v>424</v>
-      </c>
-      <c r="F390" t="s">
-        <v>425</v>
+        <v>410</v>
+      </c>
+      <c r="F390" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="391" spans="1:6">
@@ -11336,13 +11258,13 @@
         <v>14</v>
       </c>
       <c r="C391" s="3" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="D391" t="s">
-        <v>424</v>
-      </c>
-      <c r="F391" t="s">
-        <v>54</v>
+        <v>410</v>
+      </c>
+      <c r="F391" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="392" spans="1:6">
@@ -11353,13 +11275,13 @@
         <v>14</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="D392" t="s">
-        <v>424</v>
-      </c>
-      <c r="F392" t="s">
-        <v>56</v>
+        <v>410</v>
+      </c>
+      <c r="F392" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="393" spans="1:6">
@@ -11370,13 +11292,13 @@
         <v>14</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="D393" t="s">
-        <v>424</v>
-      </c>
-      <c r="F393" t="s">
-        <v>425</v>
+        <v>410</v>
+      </c>
+      <c r="F393" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="394" spans="1:6">
@@ -11387,13 +11309,13 @@
         <v>14</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="D394" t="s">
-        <v>424</v>
-      </c>
-      <c r="F394" t="s">
-        <v>425</v>
+        <v>410</v>
+      </c>
+      <c r="F394" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="395" spans="1:6">
@@ -11404,13 +11326,13 @@
         <v>14</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="D395" t="s">
-        <v>424</v>
-      </c>
-      <c r="F395" t="s">
-        <v>425</v>
+        <v>410</v>
+      </c>
+      <c r="F395" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="396" spans="1:6">
@@ -11421,13 +11343,13 @@
         <v>14</v>
       </c>
       <c r="C396" s="3" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="D396" t="s">
-        <v>424</v>
-      </c>
-      <c r="F396" t="s">
-        <v>54</v>
+        <v>410</v>
+      </c>
+      <c r="F396" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="397" spans="1:6">
@@ -11438,13 +11360,13 @@
         <v>14</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="D397" t="s">
-        <v>424</v>
-      </c>
-      <c r="F397" t="s">
-        <v>56</v>
+        <v>410</v>
+      </c>
+      <c r="F397" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="398" spans="1:6">
@@ -11455,13 +11377,13 @@
         <v>14</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="D398" t="s">
-        <v>424</v>
-      </c>
-      <c r="F398" t="s">
-        <v>56</v>
+        <v>410</v>
+      </c>
+      <c r="F398" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="399" spans="1:6">
@@ -11472,13 +11394,13 @@
         <v>14</v>
       </c>
       <c r="C399" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="D399" t="s">
-        <v>424</v>
-      </c>
-      <c r="F399" t="s">
-        <v>54</v>
+        <v>410</v>
+      </c>
+      <c r="F399" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="400" spans="1:6">
@@ -11489,13 +11411,13 @@
         <v>14</v>
       </c>
       <c r="C400" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="D400" t="s">
-        <v>424</v>
-      </c>
-      <c r="F400" t="s">
-        <v>425</v>
+        <v>410</v>
+      </c>
+      <c r="F400" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="401" spans="1:6">
@@ -11506,13 +11428,13 @@
         <v>14</v>
       </c>
       <c r="C401" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="D401" t="s">
-        <v>424</v>
-      </c>
-      <c r="F401" t="s">
-        <v>425</v>
+        <v>410</v>
+      </c>
+      <c r="F401" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="402" spans="1:6">
@@ -11523,13 +11445,13 @@
         <v>14</v>
       </c>
       <c r="C402" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="D402" t="s">
-        <v>424</v>
-      </c>
-      <c r="F402" t="s">
-        <v>54</v>
+        <v>410</v>
+      </c>
+      <c r="F402" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="403" spans="1:6">
@@ -11540,16 +11462,16 @@
         <v>14</v>
       </c>
       <c r="C403" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="D403" s="4" t="s">
-        <v>444</v>
+        <v>418</v>
       </c>
       <c r="E403" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="F403" t="s">
-        <v>428</v>
+        <v>419</v>
+      </c>
+      <c r="F403" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="404" spans="1:6">
@@ -11560,13 +11482,13 @@
         <v>14</v>
       </c>
       <c r="C404" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="D404" t="s">
-        <v>405</v>
-      </c>
-      <c r="F404" t="s">
-        <v>428</v>
+        <v>391</v>
+      </c>
+      <c r="F404" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="405" spans="1:6">
@@ -11577,13 +11499,13 @@
         <v>14</v>
       </c>
       <c r="C405" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="D405" t="s">
-        <v>405</v>
-      </c>
-      <c r="F405" t="s">
-        <v>429</v>
+        <v>391</v>
+      </c>
+      <c r="F405" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="406" spans="1:6">
@@ -11594,13 +11516,13 @@
         <v>14</v>
       </c>
       <c r="C406" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="D406" t="s">
-        <v>405</v>
-      </c>
-      <c r="F406" t="s">
-        <v>56</v>
+        <v>391</v>
+      </c>
+      <c r="F406" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="407" spans="1:6">
@@ -11611,13 +11533,13 @@
         <v>14</v>
       </c>
       <c r="C407" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="D407" t="s">
-        <v>405</v>
-      </c>
-      <c r="F407" t="s">
-        <v>425</v>
+        <v>391</v>
+      </c>
+      <c r="F407" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="408" spans="1:6">
@@ -11628,13 +11550,13 @@
         <v>14</v>
       </c>
       <c r="C408" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="D408" t="s">
-        <v>405</v>
-      </c>
-      <c r="F408" t="s">
-        <v>429</v>
+        <v>391</v>
+      </c>
+      <c r="F408" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="409" spans="1:6">
@@ -11645,13 +11567,13 @@
         <v>14</v>
       </c>
       <c r="C409" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="D409" t="s">
-        <v>405</v>
-      </c>
-      <c r="F409" t="s">
-        <v>425</v>
+        <v>391</v>
+      </c>
+      <c r="F409" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="410" spans="1:6">
@@ -11662,13 +11584,13 @@
         <v>14</v>
       </c>
       <c r="C410" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="D410" t="s">
-        <v>405</v>
-      </c>
-      <c r="F410" t="s">
-        <v>425</v>
+        <v>391</v>
+      </c>
+      <c r="F410" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="411" spans="1:6">
@@ -11679,13 +11601,13 @@
         <v>14</v>
       </c>
       <c r="C411" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="D411" t="s">
-        <v>405</v>
-      </c>
-      <c r="F411" t="s">
-        <v>429</v>
+        <v>391</v>
+      </c>
+      <c r="F411" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="412" spans="1:6">
@@ -11696,13 +11618,13 @@
         <v>14</v>
       </c>
       <c r="C412" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="D412" t="s">
-        <v>405</v>
-      </c>
-      <c r="F412" t="s">
-        <v>429</v>
+        <v>391</v>
+      </c>
+      <c r="F412" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="413" spans="1:6">
@@ -11713,13 +11635,13 @@
         <v>14</v>
       </c>
       <c r="C413" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="D413" t="s">
-        <v>405</v>
-      </c>
-      <c r="F413" t="s">
-        <v>425</v>
+        <v>391</v>
+      </c>
+      <c r="F413" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="414" spans="1:6">
@@ -11730,13 +11652,13 @@
         <v>14</v>
       </c>
       <c r="C414" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="D414" t="s">
-        <v>405</v>
-      </c>
-      <c r="F414" t="s">
-        <v>425</v>
+        <v>391</v>
+      </c>
+      <c r="F414" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="415" spans="1:6">
@@ -11747,13 +11669,13 @@
         <v>14</v>
       </c>
       <c r="C415" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="D415" t="s">
-        <v>405</v>
-      </c>
-      <c r="F415" t="s">
-        <v>425</v>
+        <v>391</v>
+      </c>
+      <c r="F415" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="416" spans="1:6">
@@ -11764,13 +11686,13 @@
         <v>14</v>
       </c>
       <c r="C416" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="D416" t="s">
-        <v>405</v>
-      </c>
-      <c r="F416" t="s">
-        <v>56</v>
+        <v>391</v>
+      </c>
+      <c r="F416" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="417" spans="1:6">
@@ -11781,13 +11703,13 @@
         <v>14</v>
       </c>
       <c r="C417" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="D417" t="s">
-        <v>405</v>
-      </c>
-      <c r="F417" t="s">
-        <v>429</v>
+        <v>391</v>
+      </c>
+      <c r="F417" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="418" spans="1:6">
@@ -11798,13 +11720,13 @@
         <v>14</v>
       </c>
       <c r="C418" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="D418" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="F418" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
